--- a/adsphd-master/chapters/myappendixA/Tables/Tables Appendix A.xlsx
+++ b/adsphd-master/chapters/myappendixA/Tables/Tables Appendix A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="crop par" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="140">
   <si>
     <t>Parameter</t>
   </si>
@@ -573,6 +573,15 @@
   </si>
   <si>
     <t>wp*</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -667,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -712,6 +721,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2026,12 +2038,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="17"/>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="17"/>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="17"/>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="17"/>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>